--- a/data/output/FV2404_FV2310/UTILMD/55192.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55192.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4891" uniqueCount="406">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4912" uniqueCount="406">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1375,6 +1375,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U229" totalsRowShown="0">
+  <autoFilter ref="A1:U229"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1664,7 +1694,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12298,5 +12331,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55192.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55192.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6010" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5950" uniqueCount="626">
   <si>
     <t>#</t>
   </si>
@@ -7552,44 +7552,42 @@
       <c r="V100" s="9"/>
     </row>
     <row r="101" spans="1:22">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="K101" s="2"/>
-      <c r="L101" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="M101" s="2" t="s">
+      <c r="C101" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="K101" s="5"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N101" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O101" s="2"/>
-      <c r="P101" s="2"/>
-      <c r="Q101" s="2"/>
-      <c r="R101" s="2"/>
-      <c r="S101" s="2"/>
-      <c r="T101" s="2"/>
-      <c r="U101" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="V101" s="2"/>
+      <c r="N101" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="5"/>
+      <c r="T101" s="5"/>
+      <c r="U101" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="V101" s="5"/>
     </row>
     <row r="102" spans="1:22">
       <c r="A102" s="2" t="s">
@@ -7750,46 +7748,44 @@
       <c r="V104" s="2"/>
     </row>
     <row r="105" spans="1:22">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2" t="s">
+      <c r="C105" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="K105" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="L105" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="M105" s="2" t="s">
+      <c r="L105" s="7"/>
+      <c r="M105" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N105" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O105" s="2"/>
-      <c r="P105" s="2"/>
-      <c r="Q105" s="2"/>
-      <c r="R105" s="2"/>
-      <c r="S105" s="2"/>
-      <c r="T105" s="2"/>
-      <c r="U105" s="2" t="s">
+      <c r="N105" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O105" s="5"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="5"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="V105" s="2" t="s">
+      <c r="V105" s="5" t="s">
         <v>322</v>
       </c>
     </row>
@@ -7952,44 +7948,42 @@
       <c r="V108" s="2"/>
     </row>
     <row r="109" spans="1:22">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="K109" s="2"/>
-      <c r="L109" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="M109" s="2" t="s">
+      <c r="C109" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="K109" s="5"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N109" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O109" s="2"/>
-      <c r="P109" s="2"/>
-      <c r="Q109" s="2"/>
-      <c r="R109" s="2"/>
-      <c r="S109" s="2"/>
-      <c r="T109" s="2"/>
-      <c r="U109" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="V109" s="2"/>
+      <c r="N109" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O109" s="5"/>
+      <c r="P109" s="5"/>
+      <c r="Q109" s="5"/>
+      <c r="R109" s="5"/>
+      <c r="S109" s="5"/>
+      <c r="T109" s="5"/>
+      <c r="U109" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="V109" s="5"/>
     </row>
     <row r="110" spans="1:22">
       <c r="A110" s="2" t="s">
@@ -8150,46 +8144,44 @@
       <c r="V112" s="2"/>
     </row>
     <row r="113" spans="1:22">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2" t="s">
+      <c r="C113" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="K113" s="2" t="s">
+      <c r="K113" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="L113" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="M113" s="2" t="s">
+      <c r="L113" s="7"/>
+      <c r="M113" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N113" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O113" s="2"/>
-      <c r="P113" s="2"/>
-      <c r="Q113" s="2"/>
-      <c r="R113" s="2"/>
-      <c r="S113" s="2"/>
-      <c r="T113" s="2"/>
-      <c r="U113" s="2" t="s">
+      <c r="N113" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O113" s="5"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
+      <c r="R113" s="5"/>
+      <c r="S113" s="5"/>
+      <c r="T113" s="5"/>
+      <c r="U113" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="V113" s="2" t="s">
+      <c r="V113" s="5" t="s">
         <v>313</v>
       </c>
     </row>
@@ -8456,44 +8448,42 @@
       <c r="V118" s="2"/>
     </row>
     <row r="119" spans="1:22">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="K119" s="2"/>
-      <c r="L119" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="M119" s="2" t="s">
+      <c r="C119" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="K119" s="5"/>
+      <c r="L119" s="7"/>
+      <c r="M119" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N119" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O119" s="2"/>
-      <c r="P119" s="2"/>
-      <c r="Q119" s="2"/>
-      <c r="R119" s="2"/>
-      <c r="S119" s="2"/>
-      <c r="T119" s="2"/>
-      <c r="U119" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="V119" s="2"/>
+      <c r="N119" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O119" s="5"/>
+      <c r="P119" s="5"/>
+      <c r="Q119" s="5"/>
+      <c r="R119" s="5"/>
+      <c r="S119" s="5"/>
+      <c r="T119" s="5"/>
+      <c r="U119" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="V119" s="5"/>
     </row>
     <row r="120" spans="1:22">
       <c r="A120" s="2" t="s">
@@ -8731,9 +8721,7 @@
         <v>279</v>
       </c>
       <c r="K124" s="2"/>
-      <c r="L124" s="4" t="s">
-        <v>335</v>
-      </c>
+      <c r="L124" s="7"/>
       <c r="M124" s="2" t="s">
         <v>49</v>
       </c>
@@ -8787,9 +8775,7 @@
         <v>279</v>
       </c>
       <c r="K125" s="2"/>
-      <c r="L125" s="4" t="s">
-        <v>335</v>
-      </c>
+      <c r="L125" s="7"/>
       <c r="M125" s="2" t="s">
         <v>49</v>
       </c>
@@ -8843,9 +8829,7 @@
         <v>279</v>
       </c>
       <c r="K126" s="2"/>
-      <c r="L126" s="4" t="s">
-        <v>335</v>
-      </c>
+      <c r="L126" s="7"/>
       <c r="M126" s="2" t="s">
         <v>49</v>
       </c>
@@ -9007,9 +8991,7 @@
         <v>297</v>
       </c>
       <c r="K129" s="2"/>
-      <c r="L129" s="4" t="s">
-        <v>335</v>
-      </c>
+      <c r="L129" s="7"/>
       <c r="M129" s="2" t="s">
         <v>50</v>
       </c>
@@ -9065,9 +9047,7 @@
       <c r="K130" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="L130" s="4" t="s">
-        <v>335</v>
-      </c>
+      <c r="L130" s="7"/>
       <c r="M130" s="2" t="s">
         <v>50</v>
       </c>
@@ -9096,44 +9076,42 @@
       </c>
     </row>
     <row r="131" spans="1:22">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="K131" s="2"/>
-      <c r="L131" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="M131" s="2" t="s">
+      <c r="C131" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="K131" s="5"/>
+      <c r="L131" s="7"/>
+      <c r="M131" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N131" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O131" s="2"/>
-      <c r="P131" s="2"/>
-      <c r="Q131" s="2"/>
-      <c r="R131" s="2"/>
-      <c r="S131" s="2"/>
-      <c r="T131" s="2"/>
-      <c r="U131" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="V131" s="2"/>
+      <c r="N131" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O131" s="5"/>
+      <c r="P131" s="5"/>
+      <c r="Q131" s="5"/>
+      <c r="R131" s="5"/>
+      <c r="S131" s="5"/>
+      <c r="T131" s="5"/>
+      <c r="U131" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="V131" s="5"/>
     </row>
     <row r="132" spans="1:22">
       <c r="A132" s="2" t="s">
@@ -9325,9 +9303,7 @@
         <v>279</v>
       </c>
       <c r="K135" s="2"/>
-      <c r="L135" s="4" t="s">
-        <v>335</v>
-      </c>
+      <c r="L135" s="7"/>
       <c r="M135" s="2" t="s">
         <v>51</v>
       </c>
@@ -9354,44 +9330,42 @@
       <c r="V135" s="2"/>
     </row>
     <row r="136" spans="1:22">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="K136" s="2"/>
-      <c r="L136" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="M136" s="2" t="s">
+      <c r="C136" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="K136" s="5"/>
+      <c r="L136" s="7"/>
+      <c r="M136" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N136" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O136" s="2"/>
-      <c r="P136" s="2"/>
-      <c r="Q136" s="2"/>
-      <c r="R136" s="2"/>
-      <c r="S136" s="2"/>
-      <c r="T136" s="2"/>
-      <c r="U136" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="V136" s="2"/>
+      <c r="N136" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O136" s="5"/>
+      <c r="P136" s="5"/>
+      <c r="Q136" s="5"/>
+      <c r="R136" s="5"/>
+      <c r="S136" s="5"/>
+      <c r="T136" s="5"/>
+      <c r="U136" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="V136" s="5"/>
     </row>
     <row r="137" spans="1:22">
       <c r="A137" s="2" t="s">
@@ -9525,9 +9499,7 @@
         <v>279</v>
       </c>
       <c r="K139" s="2"/>
-      <c r="L139" s="4" t="s">
-        <v>335</v>
-      </c>
+      <c r="L139" s="7"/>
       <c r="M139" s="2" t="s">
         <v>52</v>
       </c>
@@ -9860,46 +9832,44 @@
       <c r="V146" s="2"/>
     </row>
     <row r="147" spans="1:22">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2" t="s">
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="K147" s="2" t="s">
+      <c r="K147" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="L147" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="M147" s="2" t="s">
+      <c r="L147" s="7"/>
+      <c r="M147" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N147" s="2" t="s">
+      <c r="N147" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="O147" s="2"/>
-      <c r="P147" s="2"/>
-      <c r="Q147" s="2"/>
-      <c r="R147" s="2"/>
-      <c r="S147" s="2"/>
-      <c r="T147" s="2"/>
-      <c r="U147" s="2" t="s">
+      <c r="O147" s="5"/>
+      <c r="P147" s="5"/>
+      <c r="Q147" s="5"/>
+      <c r="R147" s="5"/>
+      <c r="S147" s="5"/>
+      <c r="T147" s="5"/>
+      <c r="U147" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="V147" s="2" t="s">
+      <c r="V147" s="5" t="s">
         <v>327</v>
       </c>
     </row>
@@ -10390,44 +10360,42 @@
       <c r="V156" s="2"/>
     </row>
     <row r="157" spans="1:22">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
-      <c r="J157" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="K157" s="2"/>
-      <c r="L157" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="M157" s="2" t="s">
+      <c r="C157" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="K157" s="5"/>
+      <c r="L157" s="7"/>
+      <c r="M157" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N157" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O157" s="2"/>
-      <c r="P157" s="2"/>
-      <c r="Q157" s="2"/>
-      <c r="R157" s="2"/>
-      <c r="S157" s="2"/>
-      <c r="T157" s="2"/>
-      <c r="U157" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="V157" s="2"/>
+      <c r="N157" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O157" s="5"/>
+      <c r="P157" s="5"/>
+      <c r="Q157" s="5"/>
+      <c r="R157" s="5"/>
+      <c r="S157" s="5"/>
+      <c r="T157" s="5"/>
+      <c r="U157" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="V157" s="5"/>
     </row>
     <row r="158" spans="1:22">
       <c r="A158" s="2" t="s">
@@ -10638,44 +10606,42 @@
       <c r="V161" s="2"/>
     </row>
     <row r="162" spans="1:22">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="2"/>
-      <c r="J162" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="K162" s="2"/>
-      <c r="L162" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="M162" s="2" t="s">
+      <c r="C162" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="K162" s="5"/>
+      <c r="L162" s="7"/>
+      <c r="M162" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N162" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O162" s="2"/>
-      <c r="P162" s="2"/>
-      <c r="Q162" s="2"/>
-      <c r="R162" s="2"/>
-      <c r="S162" s="2"/>
-      <c r="T162" s="2"/>
-      <c r="U162" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="V162" s="2"/>
+      <c r="N162" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O162" s="5"/>
+      <c r="P162" s="5"/>
+      <c r="Q162" s="5"/>
+      <c r="R162" s="5"/>
+      <c r="S162" s="5"/>
+      <c r="T162" s="5"/>
+      <c r="U162" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="V162" s="5"/>
     </row>
     <row r="163" spans="1:22">
       <c r="A163" s="2" t="s">
@@ -10913,9 +10879,7 @@
         <v>303</v>
       </c>
       <c r="K167" s="2"/>
-      <c r="L167" s="4" t="s">
-        <v>335</v>
-      </c>
+      <c r="L167" s="7"/>
       <c r="M167" s="2" t="s">
         <v>58</v>
       </c>
@@ -10942,46 +10906,44 @@
       <c r="V167" s="2"/>
     </row>
     <row r="168" spans="1:22">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
-      <c r="I168" s="2"/>
-      <c r="J168" s="2" t="s">
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="K168" s="2" t="s">
+      <c r="K168" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="L168" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="M168" s="2" t="s">
+      <c r="L168" s="7"/>
+      <c r="M168" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N168" s="2" t="s">
+      <c r="N168" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="O168" s="2"/>
-      <c r="P168" s="2"/>
-      <c r="Q168" s="2"/>
-      <c r="R168" s="2"/>
-      <c r="S168" s="2"/>
-      <c r="T168" s="2"/>
-      <c r="U168" s="2" t="s">
+      <c r="O168" s="5"/>
+      <c r="P168" s="5"/>
+      <c r="Q168" s="5"/>
+      <c r="R168" s="5"/>
+      <c r="S168" s="5"/>
+      <c r="T168" s="5"/>
+      <c r="U168" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="V168" s="2" t="s">
+      <c r="V168" s="5" t="s">
         <v>329</v>
       </c>
     </row>
@@ -11252,46 +11214,44 @@
       </c>
     </row>
     <row r="174" spans="1:22">
-      <c r="A174" s="2" t="s">
+      <c r="A174" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
-      <c r="J174" s="2" t="s">
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="K174" s="2" t="s">
+      <c r="K174" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="L174" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="M174" s="2" t="s">
+      <c r="L174" s="7"/>
+      <c r="M174" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N174" s="2" t="s">
+      <c r="N174" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O174" s="2"/>
-      <c r="P174" s="2"/>
-      <c r="Q174" s="2"/>
-      <c r="R174" s="2"/>
-      <c r="S174" s="2"/>
-      <c r="T174" s="2"/>
-      <c r="U174" s="2" t="s">
+      <c r="O174" s="5"/>
+      <c r="P174" s="5"/>
+      <c r="Q174" s="5"/>
+      <c r="R174" s="5"/>
+      <c r="S174" s="5"/>
+      <c r="T174" s="5"/>
+      <c r="U174" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="V174" s="2" t="s">
+      <c r="V174" s="5" t="s">
         <v>330</v>
       </c>
     </row>
@@ -11516,44 +11476,42 @@
       <c r="V178" s="2"/>
     </row>
     <row r="179" spans="1:22">
-      <c r="A179" s="2" t="s">
+      <c r="A179" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
-      <c r="I179" s="2"/>
-      <c r="J179" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="K179" s="2"/>
-      <c r="L179" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="M179" s="2" t="s">
+      <c r="C179" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
+      <c r="J179" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="K179" s="5"/>
+      <c r="L179" s="7"/>
+      <c r="M179" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N179" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O179" s="2"/>
-      <c r="P179" s="2"/>
-      <c r="Q179" s="2"/>
-      <c r="R179" s="2"/>
-      <c r="S179" s="2"/>
-      <c r="T179" s="2"/>
-      <c r="U179" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="V179" s="2"/>
+      <c r="N179" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O179" s="5"/>
+      <c r="P179" s="5"/>
+      <c r="Q179" s="5"/>
+      <c r="R179" s="5"/>
+      <c r="S179" s="5"/>
+      <c r="T179" s="5"/>
+      <c r="U179" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="V179" s="5"/>
     </row>
     <row r="180" spans="1:22">
       <c r="A180" s="2" t="s">
@@ -11818,44 +11776,42 @@
       <c r="V184" s="2"/>
     </row>
     <row r="185" spans="1:22">
-      <c r="A185" s="2" t="s">
+      <c r="A185" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
-      <c r="H185" s="2"/>
-      <c r="I185" s="2"/>
-      <c r="J185" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="K185" s="2"/>
-      <c r="L185" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="M185" s="2" t="s">
+      <c r="C185" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+      <c r="J185" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="K185" s="5"/>
+      <c r="L185" s="7"/>
+      <c r="M185" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N185" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O185" s="2"/>
-      <c r="P185" s="2"/>
-      <c r="Q185" s="2"/>
-      <c r="R185" s="2"/>
-      <c r="S185" s="2"/>
-      <c r="T185" s="2"/>
-      <c r="U185" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="V185" s="2"/>
+      <c r="N185" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O185" s="5"/>
+      <c r="P185" s="5"/>
+      <c r="Q185" s="5"/>
+      <c r="R185" s="5"/>
+      <c r="S185" s="5"/>
+      <c r="T185" s="5"/>
+      <c r="U185" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="V185" s="5"/>
     </row>
     <row r="186" spans="1:22">
       <c r="A186" s="2" t="s">
@@ -12016,44 +11972,42 @@
       <c r="V188" s="2"/>
     </row>
     <row r="189" spans="1:22">
-      <c r="A189" s="2" t="s">
+      <c r="A189" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
-      <c r="F189" s="2"/>
-      <c r="G189" s="2"/>
-      <c r="H189" s="2"/>
-      <c r="I189" s="2"/>
-      <c r="J189" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="K189" s="2"/>
-      <c r="L189" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="M189" s="2" t="s">
+      <c r="C189" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
+      <c r="J189" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="K189" s="5"/>
+      <c r="L189" s="7"/>
+      <c r="M189" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N189" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O189" s="2"/>
-      <c r="P189" s="2"/>
-      <c r="Q189" s="2"/>
-      <c r="R189" s="2"/>
-      <c r="S189" s="2"/>
-      <c r="T189" s="2"/>
-      <c r="U189" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="V189" s="2"/>
+      <c r="N189" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O189" s="5"/>
+      <c r="P189" s="5"/>
+      <c r="Q189" s="5"/>
+      <c r="R189" s="5"/>
+      <c r="S189" s="5"/>
+      <c r="T189" s="5"/>
+      <c r="U189" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="V189" s="5"/>
     </row>
     <row r="190" spans="1:22">
       <c r="A190" s="2" t="s">
@@ -12245,9 +12199,7 @@
         <v>279</v>
       </c>
       <c r="K193" s="2"/>
-      <c r="L193" s="4" t="s">
-        <v>335</v>
-      </c>
+      <c r="L193" s="7"/>
       <c r="M193" s="2" t="s">
         <v>63</v>
       </c>
@@ -12274,46 +12226,44 @@
       <c r="V193" s="2"/>
     </row>
     <row r="194" spans="1:22">
-      <c r="A194" s="2" t="s">
+      <c r="A194" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
-      <c r="F194" s="2"/>
-      <c r="G194" s="2"/>
-      <c r="H194" s="2"/>
-      <c r="I194" s="2"/>
-      <c r="J194" s="2" t="s">
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="K194" s="2" t="s">
+      <c r="K194" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="L194" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="M194" s="2" t="s">
+      <c r="L194" s="7"/>
+      <c r="M194" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N194" s="2" t="s">
+      <c r="N194" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="O194" s="2"/>
-      <c r="P194" s="2"/>
-      <c r="Q194" s="2"/>
-      <c r="R194" s="2"/>
-      <c r="S194" s="2"/>
-      <c r="T194" s="2"/>
-      <c r="U194" s="2" t="s">
+      <c r="O194" s="5"/>
+      <c r="P194" s="5"/>
+      <c r="Q194" s="5"/>
+      <c r="R194" s="5"/>
+      <c r="S194" s="5"/>
+      <c r="T194" s="5"/>
+      <c r="U194" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="V194" s="2" t="s">
+      <c r="V194" s="5" t="s">
         <v>332</v>
       </c>
     </row>
@@ -12804,44 +12754,42 @@
       <c r="V203" s="2"/>
     </row>
     <row r="204" spans="1:22">
-      <c r="A204" s="2" t="s">
+      <c r="A204" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
-      <c r="F204" s="2"/>
-      <c r="G204" s="2"/>
-      <c r="H204" s="2"/>
-      <c r="I204" s="2"/>
-      <c r="J204" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="K204" s="2"/>
-      <c r="L204" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="M204" s="2" t="s">
+      <c r="C204" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="5"/>
+      <c r="J204" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="K204" s="5"/>
+      <c r="L204" s="7"/>
+      <c r="M204" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N204" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O204" s="2"/>
-      <c r="P204" s="2"/>
-      <c r="Q204" s="2"/>
-      <c r="R204" s="2"/>
-      <c r="S204" s="2"/>
-      <c r="T204" s="2"/>
-      <c r="U204" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="V204" s="2"/>
+      <c r="N204" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O204" s="5"/>
+      <c r="P204" s="5"/>
+      <c r="Q204" s="5"/>
+      <c r="R204" s="5"/>
+      <c r="S204" s="5"/>
+      <c r="T204" s="5"/>
+      <c r="U204" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="V204" s="5"/>
     </row>
     <row r="205" spans="1:22">
       <c r="A205" s="2" t="s">
@@ -13052,44 +13000,42 @@
       <c r="V208" s="2"/>
     </row>
     <row r="209" spans="1:22">
-      <c r="A209" s="2" t="s">
+      <c r="A209" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
-      <c r="F209" s="2"/>
-      <c r="G209" s="2"/>
-      <c r="H209" s="2"/>
-      <c r="I209" s="2"/>
-      <c r="J209" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="K209" s="2"/>
-      <c r="L209" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="M209" s="2" t="s">
+      <c r="C209" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="5"/>
+      <c r="J209" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="K209" s="5"/>
+      <c r="L209" s="7"/>
+      <c r="M209" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N209" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O209" s="2"/>
-      <c r="P209" s="2"/>
-      <c r="Q209" s="2"/>
-      <c r="R209" s="2"/>
-      <c r="S209" s="2"/>
-      <c r="T209" s="2"/>
-      <c r="U209" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="V209" s="2"/>
+      <c r="N209" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O209" s="5"/>
+      <c r="P209" s="5"/>
+      <c r="Q209" s="5"/>
+      <c r="R209" s="5"/>
+      <c r="S209" s="5"/>
+      <c r="T209" s="5"/>
+      <c r="U209" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="V209" s="5"/>
     </row>
     <row r="210" spans="1:22">
       <c r="A210" s="2" t="s">
@@ -13327,9 +13273,7 @@
         <v>303</v>
       </c>
       <c r="K214" s="2"/>
-      <c r="L214" s="4" t="s">
-        <v>335</v>
-      </c>
+      <c r="L214" s="7"/>
       <c r="M214" s="2" t="s">
         <v>58</v>
       </c>
@@ -13356,46 +13300,44 @@
       <c r="V214" s="2"/>
     </row>
     <row r="215" spans="1:22">
-      <c r="A215" s="2" t="s">
+      <c r="A215" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C215" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
-      <c r="F215" s="2"/>
-      <c r="G215" s="2"/>
-      <c r="H215" s="2"/>
-      <c r="I215" s="2"/>
-      <c r="J215" s="2" t="s">
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="5"/>
+      <c r="I215" s="5"/>
+      <c r="J215" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="K215" s="2" t="s">
+      <c r="K215" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="L215" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="M215" s="2" t="s">
+      <c r="L215" s="7"/>
+      <c r="M215" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N215" s="2" t="s">
+      <c r="N215" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="O215" s="2"/>
-      <c r="P215" s="2"/>
-      <c r="Q215" s="2"/>
-      <c r="R215" s="2"/>
-      <c r="S215" s="2"/>
-      <c r="T215" s="2"/>
-      <c r="U215" s="2" t="s">
+      <c r="O215" s="5"/>
+      <c r="P215" s="5"/>
+      <c r="Q215" s="5"/>
+      <c r="R215" s="5"/>
+      <c r="S215" s="5"/>
+      <c r="T215" s="5"/>
+      <c r="U215" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="V215" s="2" t="s">
+      <c r="V215" s="5" t="s">
         <v>334</v>
       </c>
     </row>
@@ -13666,44 +13608,42 @@
       </c>
     </row>
     <row r="221" spans="1:22">
-      <c r="A221" s="2" t="s">
+      <c r="A221" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D221" s="2"/>
-      <c r="E221" s="2"/>
-      <c r="F221" s="2"/>
-      <c r="G221" s="2"/>
-      <c r="H221" s="2"/>
-      <c r="I221" s="2"/>
-      <c r="J221" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="K221" s="2"/>
-      <c r="L221" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="M221" s="2" t="s">
+      <c r="C221" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5"/>
+      <c r="H221" s="5"/>
+      <c r="I221" s="5"/>
+      <c r="J221" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="K221" s="5"/>
+      <c r="L221" s="7"/>
+      <c r="M221" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N221" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O221" s="2"/>
-      <c r="P221" s="2"/>
-      <c r="Q221" s="2"/>
-      <c r="R221" s="2"/>
-      <c r="S221" s="2"/>
-      <c r="T221" s="2"/>
-      <c r="U221" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="V221" s="2"/>
+      <c r="N221" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O221" s="5"/>
+      <c r="P221" s="5"/>
+      <c r="Q221" s="5"/>
+      <c r="R221" s="5"/>
+      <c r="S221" s="5"/>
+      <c r="T221" s="5"/>
+      <c r="U221" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="V221" s="5"/>
     </row>
     <row r="222" spans="1:22">
       <c r="A222" s="2" t="s">
